--- a/biology/Botanique/Betula_alnoides/Betula_alnoides.xlsx
+++ b/biology/Botanique/Betula_alnoides/Betula_alnoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betula alnoides est une espèce de bouleau que l'on trouve à l'état naturel dans des pays tels que le Bangladesh, le Bhoutan, le Cambodge, la Chine, l'Inde, le Laos, le Myanmar, le Népal, la Thaïlande et le Vietnam à une altitude de 300 à 2 100 mètres et plus dans certains cas (jusqu'à 2 700 mètres)[3],[4],[5],[6],[7]. La plus méridionale de toutes les espèces de bouleaux connues, dont l'aire de répartition naturelle atteint environ 12 °N dans la Chaîne des Cardamomes, au Cambodge.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betula alnoides est une espèce de bouleau que l'on trouve à l'état naturel dans des pays tels que le Bangladesh, le Bhoutan, le Cambodge, la Chine, l'Inde, le Laos, le Myanmar, le Népal, la Thaïlande et le Vietnam à une altitude de 300 à 2 100 mètres et plus dans certains cas (jusqu'à 2 700 mètres). La plus méridionale de toutes les espèces de bouleaux connues, dont l'aire de répartition naturelle atteint environ 12 °N dans la Chaîne des Cardamomes, au Cambodge.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante mesure 30 mètres de haut avec des branches de couleur blanche.
 </t>
@@ -542,9 +556,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorce interne de Betula alnoides est comestible et sert à la fabrication de gâteaux et de pain. Il est également considéré comme un antidote contre les morsures de serpent et est utilisé pour traiter les os disloqués[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce interne de Betula alnoides est comestible et sert à la fabrication de gâteaux et de pain. Il est également considéré comme un antidote contre les morsures de serpent et est utilisé pour traiter les os disloqués.
 </t>
         </is>
       </c>
